--- a/input/mappings/UN_pop_WB_HYDE_ext_iso_map.xlsx
+++ b/input/mappings/UN_pop_WB_HYDE_ext_iso_map.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orou913\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD895316-5E27-D84B-BBC2-296BA14B9D6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22335" windowHeight="6960" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="13020" yWindow="7660" windowWidth="12140" windowHeight="9760" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UN_pop_WB_HYDE_ext_iso_map" sheetId="2" r:id="rId1"/>
@@ -17,10 +18,16 @@
     <sheet name="WB_pop_UN_HYDE_ext_iso_map" sheetId="6" r:id="rId3"/>
     <sheet name="HYDE_pop_UN_WB_ext_iso_map" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3245,8 +3252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3329,7 +3336,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_CONSTANT" xfId="1"/>
+    <cellStyle name="Normal_CONSTANT" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3606,23 +3613,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3667,7 +3674,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3709,7 +3716,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3723,7 +3730,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3737,7 +3744,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3765,7 +3772,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3807,7 +3814,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4189,7 +4196,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4206,7 +4213,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4308,7 +4315,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4390,7 +4397,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4407,7 +4414,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4441,7 +4448,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4458,7 +4465,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4489,7 +4496,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4506,7 +4513,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4574,7 +4581,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4588,7 +4595,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4622,7 +4629,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4639,7 +4646,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4656,7 +4663,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4690,7 +4697,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4724,7 +4731,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4758,7 +4765,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4792,7 +4799,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4809,7 +4816,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4826,7 +4833,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4843,7 +4850,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4860,7 +4867,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4936,7 +4943,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4987,7 +4994,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5004,7 +5011,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5066,7 +5073,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5100,7 +5107,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5117,7 +5124,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5134,7 +5141,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5165,7 +5172,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5182,7 +5189,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5199,7 +5206,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5216,7 +5223,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5250,7 +5257,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5267,7 +5274,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5318,7 +5325,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5349,7 +5356,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5383,7 +5390,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5400,7 +5407,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5417,7 +5424,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5434,7 +5441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5468,7 +5475,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5485,7 +5492,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5502,7 +5509,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5519,7 +5526,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5533,7 +5540,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5550,7 +5557,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5584,7 +5591,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5652,7 +5659,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5669,7 +5676,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5686,7 +5693,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5703,7 +5710,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5720,7 +5727,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5737,7 +5744,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5754,7 +5761,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5805,7 +5812,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5822,7 +5829,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5839,7 +5846,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5901,7 +5908,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5918,7 +5925,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5935,7 +5942,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5952,7 +5959,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6020,7 +6027,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6037,7 +6044,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6051,7 +6058,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6068,7 +6075,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6102,7 +6109,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6153,7 +6160,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6187,7 +6194,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6204,7 +6211,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6272,7 +6279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6286,7 +6293,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6422,7 +6429,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6439,7 +6446,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6456,7 +6463,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6490,7 +6497,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6541,7 +6548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6589,7 +6596,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6606,7 +6613,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6623,7 +6630,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6657,7 +6664,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6674,7 +6681,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6691,7 +6698,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6725,7 +6732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6753,7 +6760,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6770,7 +6777,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6787,7 +6794,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6804,7 +6811,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6821,7 +6828,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6838,7 +6845,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6855,7 +6862,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6872,7 +6879,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6889,7 +6896,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6923,7 +6930,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6940,7 +6947,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6957,7 +6964,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6974,7 +6981,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6991,7 +6998,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7008,7 +7015,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7042,7 +7049,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7059,7 +7066,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7076,7 +7083,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7110,7 +7117,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7127,7 +7134,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7161,7 +7168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7178,7 +7185,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7195,7 +7202,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7209,7 +7216,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7226,7 +7233,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7243,7 +7250,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7277,7 +7284,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7294,7 +7301,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7328,7 +7335,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7345,7 +7352,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7359,7 +7366,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7376,7 +7383,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7393,7 +7400,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7410,7 +7417,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7427,7 +7434,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7444,7 +7451,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7461,7 +7468,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7478,7 +7485,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7495,7 +7502,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7512,7 +7519,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7529,7 +7536,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7546,7 +7553,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7563,7 +7570,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7580,7 +7587,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7597,7 +7604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7611,7 +7618,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7645,7 +7652,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7662,7 +7669,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7679,7 +7686,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7696,7 +7703,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7710,7 +7717,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7724,7 +7731,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7741,7 +7748,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7758,7 +7765,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7806,7 +7813,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7823,7 +7830,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7840,7 +7847,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7857,7 +7864,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7871,7 +7878,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7888,7 +7895,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7905,7 +7912,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7922,7 +7929,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7939,7 +7946,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7956,7 +7963,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7973,7 +7980,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7990,7 +7997,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8004,7 +8011,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8021,7 +8028,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8038,7 +8045,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8055,7 +8062,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8072,7 +8079,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8089,7 +8096,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8106,7 +8113,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8140,7 +8147,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8163,16 +8170,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8189,7 +8200,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8206,7 +8217,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8223,7 +8234,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8240,7 +8251,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8257,7 +8268,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8274,7 +8285,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8291,7 +8302,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8308,7 +8319,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8342,7 +8353,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8359,7 +8370,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8376,7 +8387,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8393,7 +8404,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8410,7 +8421,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8427,7 +8438,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8444,7 +8455,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8461,7 +8472,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8478,7 +8489,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8495,7 +8506,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8512,7 +8523,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8529,7 +8540,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8546,7 +8557,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8580,7 +8591,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8597,7 +8608,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8614,7 +8625,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8648,7 +8659,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8665,7 +8676,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8682,7 +8693,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8699,7 +8710,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8716,7 +8727,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8733,7 +8744,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8750,7 +8761,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8767,7 +8778,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8784,7 +8795,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8801,7 +8812,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8818,7 +8829,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8835,7 +8846,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8852,7 +8863,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8869,7 +8880,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8886,7 +8897,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8903,7 +8914,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8920,7 +8931,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8937,7 +8948,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8954,7 +8965,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8971,7 +8982,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8988,7 +8999,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9005,7 +9016,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9022,7 +9033,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9056,7 +9067,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9073,7 +9084,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9090,7 +9101,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9107,7 +9118,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9124,7 +9135,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9141,7 +9152,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9158,7 +9169,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9175,7 +9186,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9192,7 +9203,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9209,7 +9220,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9226,7 +9237,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9243,7 +9254,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9260,7 +9271,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9277,7 +9288,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9294,7 +9305,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9311,7 +9322,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9328,7 +9339,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9345,7 +9356,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9362,7 +9373,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9379,7 +9390,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9396,7 +9407,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9413,7 +9424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9430,7 +9441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9447,7 +9458,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9464,7 +9475,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9481,7 +9492,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9498,7 +9509,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9515,7 +9526,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9532,7 +9543,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9549,7 +9560,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9566,7 +9577,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9583,7 +9594,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9600,7 +9611,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9617,7 +9628,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9634,7 +9645,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9651,7 +9662,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9668,7 +9679,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9685,7 +9696,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9702,7 +9713,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9719,7 +9730,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9736,7 +9747,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9753,7 +9764,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9770,7 +9781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9787,7 +9798,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9804,7 +9815,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9821,7 +9832,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9838,7 +9849,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9855,7 +9866,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9872,7 +9883,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9889,7 +9900,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9906,7 +9917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9923,7 +9934,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9940,7 +9951,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9957,7 +9968,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9974,7 +9985,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9991,7 +10002,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10008,7 +10019,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10025,7 +10036,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10042,7 +10053,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10059,7 +10070,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10076,7 +10087,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10093,7 +10104,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10110,7 +10121,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10127,7 +10138,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10144,7 +10155,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10161,7 +10172,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10178,7 +10189,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10195,7 +10206,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10212,7 +10223,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10229,7 +10240,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10246,7 +10257,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10263,7 +10274,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10280,7 +10291,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10297,7 +10308,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10314,7 +10325,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10331,7 +10342,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10348,7 +10359,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10365,7 +10376,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10382,7 +10393,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10399,7 +10410,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10416,7 +10427,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10433,7 +10444,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10450,7 +10461,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10467,7 +10478,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10484,7 +10495,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10501,7 +10512,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10518,7 +10529,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10535,7 +10546,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10552,7 +10563,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10569,7 +10580,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10586,7 +10597,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10603,7 +10614,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10620,7 +10631,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10637,7 +10648,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10654,7 +10665,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10671,7 +10682,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10688,7 +10699,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10705,7 +10716,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10722,7 +10733,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10739,7 +10750,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10756,7 +10767,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10773,7 +10784,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10790,7 +10801,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10807,7 +10818,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10824,7 +10835,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10841,7 +10852,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10858,7 +10869,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10875,7 +10886,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10892,7 +10903,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10909,7 +10920,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10926,7 +10937,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10943,7 +10954,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10960,7 +10971,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10977,7 +10988,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10994,7 +11005,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -11011,7 +11022,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11028,7 +11039,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11045,7 +11056,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -11062,7 +11073,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -11079,7 +11090,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -11096,7 +11107,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11113,7 +11124,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11130,7 +11141,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11164,7 +11175,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11181,7 +11192,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11198,7 +11209,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11215,7 +11226,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11232,7 +11243,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11249,7 +11260,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11266,7 +11277,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11283,7 +11294,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11300,7 +11311,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11317,7 +11328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11334,7 +11345,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11351,7 +11362,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11368,7 +11379,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11385,7 +11396,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11402,7 +11413,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11419,7 +11430,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11436,7 +11447,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11453,7 +11464,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11470,7 +11481,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11487,7 +11498,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11504,7 +11515,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11521,7 +11532,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11538,7 +11549,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11555,7 +11566,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11572,7 +11583,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11589,7 +11600,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11606,7 +11617,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11623,7 +11634,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11640,7 +11651,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11657,7 +11668,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11674,7 +11685,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11691,7 +11702,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11708,7 +11719,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11725,7 +11736,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11742,7 +11753,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11759,7 +11770,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11776,7 +11787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11793,7 +11804,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11810,7 +11821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11827,7 +11838,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11844,7 +11855,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11861,7 +11872,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11878,7 +11889,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11895,7 +11906,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11912,7 +11923,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11929,7 +11940,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11946,7 +11957,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11963,7 +11974,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11980,7 +11991,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11997,7 +12008,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12014,7 +12025,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12031,7 +12042,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12048,7 +12059,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12065,7 +12076,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12082,7 +12093,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12099,7 +12110,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12116,7 +12127,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12133,7 +12144,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12150,7 +12161,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12167,7 +12178,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12184,7 +12195,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12201,7 +12212,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12218,7 +12229,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12235,7 +12246,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12252,7 +12263,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12269,7 +12280,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12286,7 +12297,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12303,7 +12314,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12320,7 +12331,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12337,7 +12348,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12354,7 +12365,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12371,7 +12382,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12388,7 +12399,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12405,7 +12416,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12422,7 +12433,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12439,7 +12450,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12456,7 +12467,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12473,7 +12484,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12490,7 +12501,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12524,7 +12535,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12541,7 +12552,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12558,7 +12569,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12575,7 +12586,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12592,7 +12603,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12609,7 +12620,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12626,7 +12637,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12643,7 +12654,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12660,7 +12671,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12677,7 +12688,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12694,7 +12705,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12711,7 +12722,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12728,7 +12739,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12745,7 +12756,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12762,7 +12773,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12779,7 +12790,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12796,7 +12807,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12813,7 +12824,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12836,20 +12847,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -12860,7 +12871,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -12871,7 +12882,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -12882,7 +12893,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -12893,7 +12904,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -12904,7 +12915,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -12915,7 +12926,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -12926,7 +12937,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -12937,7 +12948,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>818</v>
       </c>
@@ -12948,7 +12959,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -12959,7 +12970,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -12970,7 +12981,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -12981,7 +12992,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -12992,7 +13003,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -13003,7 +13014,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -13014,7 +13025,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>810</v>
       </c>
@@ -13025,7 +13036,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -13036,7 +13047,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -13047,7 +13058,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -13058,7 +13069,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -13069,7 +13080,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -13080,7 +13091,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -13091,7 +13102,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -13102,7 +13113,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>243</v>
       </c>
@@ -13113,7 +13124,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -13124,7 +13135,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>799</v>
       </c>
@@ -13135,7 +13146,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -13146,7 +13157,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -13157,7 +13168,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>230</v>
       </c>
@@ -13168,7 +13179,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -13179,7 +13190,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -13190,7 +13201,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -13201,7 +13212,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -13212,7 +13223,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -13223,7 +13234,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -13234,7 +13245,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -13245,7 +13256,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -13256,7 +13267,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>786</v>
       </c>
@@ -13267,7 +13278,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -13278,7 +13289,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -13289,7 +13300,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>782</v>
       </c>
@@ -13300,7 +13311,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -13311,7 +13322,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -13322,7 +13333,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>231</v>
       </c>
@@ -13333,7 +13344,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -13344,7 +13355,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>232</v>
       </c>
@@ -13355,7 +13366,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -13366,7 +13377,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>773</v>
       </c>
@@ -13377,7 +13388,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>771</v>
       </c>
@@ -13388,7 +13399,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>220</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>768</v>
       </c>
@@ -13410,7 +13421,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -13421,7 +13432,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -13432,7 +13443,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>764</v>
       </c>
@@ -13443,7 +13454,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -13454,7 +13465,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -13465,7 +13476,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -13476,7 +13487,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -13487,7 +13498,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -13498,7 +13509,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -13509,7 +13520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>756</v>
       </c>
@@ -13520,7 +13531,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>754</v>
       </c>
@@ -13531,7 +13542,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -13542,7 +13553,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>751</v>
       </c>
@@ -13553,7 +13564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>221</v>
       </c>
@@ -13564,7 +13575,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -13575,7 +13586,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -13586,7 +13597,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -13597,7 +13608,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -13608,7 +13619,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>744</v>
       </c>
@@ -13619,7 +13630,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>742</v>
       </c>
@@ -13630,7 +13641,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>740</v>
       </c>
@@ -13641,7 +13652,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>738</v>
       </c>
@@ -13652,7 +13663,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -13663,7 +13674,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>253</v>
       </c>
@@ -13674,7 +13685,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>154</v>
       </c>
@@ -13685,7 +13696,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>733</v>
       </c>
@@ -13696,7 +13707,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>183</v>
       </c>
@@ -13707,7 +13718,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -13718,7 +13729,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -13729,7 +13740,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>728</v>
       </c>
@@ -13740,7 +13751,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -13751,7 +13762,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -13762,7 +13773,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -13773,7 +13784,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -13784,7 +13795,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -13795,7 +13806,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -13806,7 +13817,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -13817,7 +13828,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>222</v>
       </c>
@@ -13828,7 +13839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>68</v>
       </c>
@@ -13839,7 +13850,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -13850,7 +13861,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>236</v>
       </c>
@@ -13861,7 +13872,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -13872,7 +13883,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>714</v>
       </c>
@@ -13883,7 +13894,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>712</v>
       </c>
@@ -13894,7 +13905,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>710</v>
       </c>
@@ -13905,7 +13916,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>708</v>
       </c>
@@ -13916,7 +13927,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -13927,7 +13938,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>705</v>
       </c>
@@ -13938,7 +13949,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>142</v>
       </c>
@@ -13949,7 +13960,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>155</v>
       </c>
@@ -13960,7 +13971,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -13971,7 +13982,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -13982,7 +13993,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>699</v>
       </c>
@@ -13993,7 +14004,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -14004,7 +14015,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>156</v>
       </c>
@@ -14015,7 +14026,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>157</v>
       </c>
@@ -14026,7 +14037,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -14037,7 +14048,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>171</v>
       </c>
@@ -14048,7 +14059,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -14059,7 +14070,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -14070,7 +14081,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -14081,7 +14092,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -14092,7 +14103,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -14103,7 +14114,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -14114,7 +14125,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>686</v>
       </c>
@@ -14125,7 +14136,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>684</v>
       </c>
@@ -14136,7 +14147,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>682</v>
       </c>
@@ -14147,7 +14158,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -14158,7 +14169,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>679</v>
       </c>
@@ -14169,7 +14180,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>677</v>
       </c>
@@ -14180,7 +14191,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>675</v>
       </c>
@@ -14191,7 +14202,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>673</v>
       </c>
@@ -14202,7 +14213,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>158</v>
       </c>
@@ -14213,7 +14224,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>670</v>
       </c>
@@ -14224,7 +14235,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -14235,7 +14246,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>57</v>
       </c>
@@ -14246,7 +14257,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -14257,7 +14268,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>50</v>
       </c>
@@ -14268,7 +14279,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>185</v>
       </c>
@@ -14279,7 +14290,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>159</v>
       </c>
@@ -14290,7 +14301,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>662</v>
       </c>
@@ -14301,7 +14312,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>660</v>
       </c>
@@ -14312,7 +14323,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>658</v>
       </c>
@@ -14323,7 +14334,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>186</v>
       </c>
@@ -14334,7 +14345,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>655</v>
       </c>
@@ -14345,7 +14356,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>653</v>
       </c>
@@ -14356,7 +14367,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -14367,7 +14378,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -14378,7 +14389,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -14389,7 +14400,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>102</v>
       </c>
@@ -14400,7 +14411,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -14411,7 +14422,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -14422,7 +14433,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>261</v>
       </c>
@@ -14433,7 +14444,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>72</v>
       </c>
@@ -14444,7 +14455,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>25</v>
       </c>
@@ -14455,7 +14466,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>224</v>
       </c>
@@ -14466,7 +14477,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>641</v>
       </c>
@@ -14477,7 +14488,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>639</v>
       </c>
@@ -14488,7 +14499,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>637</v>
       </c>
@@ -14499,7 +14510,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>635</v>
       </c>
@@ -14510,7 +14521,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>633</v>
       </c>
@@ -14521,7 +14532,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -14532,7 +14543,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>86</v>
       </c>
@@ -14543,7 +14554,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -14554,7 +14565,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -14565,7 +14576,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>27</v>
       </c>
@@ -14576,7 +14587,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -14587,7 +14598,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -14598,7 +14609,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -14609,7 +14620,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -14620,7 +14631,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>254</v>
       </c>
@@ -14631,7 +14642,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>251</v>
       </c>
@@ -14642,7 +14653,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>225</v>
       </c>
@@ -14653,7 +14664,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>73</v>
       </c>
@@ -14664,7 +14675,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>74</v>
       </c>
@@ -14675,7 +14686,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>618</v>
       </c>
@@ -14686,7 +14697,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>264</v>
       </c>
@@ -14697,7 +14708,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -14708,7 +14719,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>614</v>
       </c>
@@ -14719,7 +14730,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>129</v>
       </c>
@@ -14730,7 +14741,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>611</v>
       </c>
@@ -14741,7 +14752,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>609</v>
       </c>
@@ -14752,7 +14763,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>104</v>
       </c>
@@ -14763,7 +14774,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>265</v>
       </c>
@@ -14774,7 +14785,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>226</v>
       </c>
@@ -14785,7 +14796,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>255</v>
       </c>
@@ -14796,7 +14807,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>237</v>
       </c>
@@ -14807,7 +14818,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>238</v>
       </c>
@@ -14818,7 +14829,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>113</v>
       </c>
@@ -14829,7 +14840,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>143</v>
       </c>
@@ -14840,7 +14851,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -14851,7 +14862,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>210</v>
       </c>
@@ -14862,7 +14873,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>130</v>
       </c>
@@ -14873,7 +14884,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>145</v>
       </c>
@@ -14884,7 +14895,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>146</v>
       </c>
@@ -14895,7 +14906,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>29</v>
       </c>
@@ -14906,7 +14917,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>271</v>
       </c>
@@ -14917,7 +14928,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>175</v>
       </c>
@@ -14928,7 +14939,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>46</v>
       </c>
@@ -14939,7 +14950,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>131</v>
       </c>
@@ -14950,7 +14961,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>76</v>
       </c>
@@ -14961,7 +14972,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>176</v>
       </c>
@@ -14972,7 +14983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>30</v>
       </c>
@@ -14983,7 +14994,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>77</v>
       </c>
@@ -14994,7 +15005,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>114</v>
       </c>
@@ -15005,7 +15016,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>214</v>
       </c>
@@ -15016,7 +15027,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>583</v>
       </c>
@@ -15027,7 +15038,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>177</v>
       </c>
@@ -15038,7 +15049,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>580</v>
       </c>
@@ -15049,7 +15060,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>256</v>
       </c>
@@ -15060,7 +15071,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -15071,7 +15082,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>59</v>
       </c>
@@ -15082,7 +15093,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>575</v>
       </c>
@@ -15093,7 +15104,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -15104,7 +15115,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>178</v>
       </c>
@@ -15115,7 +15126,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>105</v>
       </c>
@@ -15126,7 +15137,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>570</v>
       </c>
@@ -15137,7 +15148,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>568</v>
       </c>
@@ -15148,7 +15159,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>566</v>
       </c>
@@ -15159,7 +15170,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>563</v>
       </c>
@@ -15170,7 +15181,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>561</v>
       </c>
@@ -15181,7 +15192,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>559</v>
       </c>
@@ -15192,7 +15203,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>52</v>
       </c>
@@ -15203,7 +15214,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>239</v>
       </c>
@@ -15214,7 +15225,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>60</v>
       </c>
@@ -15225,7 +15236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>161</v>
       </c>
@@ -15236,7 +15247,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>189</v>
       </c>
@@ -15247,7 +15258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>133</v>
       </c>
@@ -15258,7 +15269,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>93</v>
       </c>
@@ -15269,7 +15280,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>550</v>
       </c>
@@ -15280,7 +15291,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>115</v>
       </c>
@@ -15291,7 +15302,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -15302,7 +15313,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>78</v>
       </c>
@@ -15313,7 +15324,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>273</v>
       </c>
@@ -15324,7 +15335,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>215</v>
       </c>
@@ -15335,7 +15346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>53</v>
       </c>
@@ -15346,7 +15357,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>134</v>
       </c>
@@ -15357,7 +15368,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>94</v>
       </c>
@@ -15368,7 +15379,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>216</v>
       </c>
@@ -15379,7 +15390,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>274</v>
       </c>
@@ -15390,7 +15401,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>33</v>
       </c>
@@ -15401,7 +15412,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>148</v>
       </c>
@@ -15412,7 +15423,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>135</v>
       </c>
@@ -15423,7 +15434,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>162</v>
       </c>
@@ -15434,7 +15445,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>534</v>
       </c>
@@ -15445,7 +15456,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>532</v>
       </c>
@@ -15456,7 +15467,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -15467,7 +15478,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>95</v>
       </c>
@@ -15478,7 +15489,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -15489,7 +15500,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>527</v>
       </c>
@@ -15500,7 +15511,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>525</v>
       </c>
@@ -15511,7 +15522,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>523</v>
       </c>
@@ -15522,7 +15533,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>521</v>
       </c>
@@ -15533,7 +15544,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>519</v>
       </c>
@@ -15544,7 +15555,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>517</v>
       </c>
@@ -15555,7 +15566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>35</v>
       </c>
@@ -15566,7 +15577,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -15583,19 +15594,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1070</v>
       </c>
@@ -15606,7 +15617,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -15617,7 +15628,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -15628,7 +15639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>12</v>
       </c>
@@ -15639,7 +15650,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>16</v>
       </c>
@@ -15650,7 +15661,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -15661,7 +15672,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>24</v>
       </c>
@@ -15672,7 +15683,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>28</v>
       </c>
@@ -15683,7 +15694,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>31</v>
       </c>
@@ -15694,7 +15705,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>32</v>
       </c>
@@ -15705,7 +15716,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>36</v>
       </c>
@@ -15716,7 +15727,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>40</v>
       </c>
@@ -15727,7 +15738,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>44</v>
       </c>
@@ -15738,7 +15749,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>48</v>
       </c>
@@ -15749,7 +15760,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>50</v>
       </c>
@@ -15760,7 +15771,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>51</v>
       </c>
@@ -15771,7 +15782,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>52</v>
       </c>
@@ -15782,7 +15793,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>56</v>
       </c>
@@ -15793,7 +15804,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>60</v>
       </c>
@@ -15804,7 +15815,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>64</v>
       </c>
@@ -15815,7 +15826,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>68</v>
       </c>
@@ -15826,7 +15837,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>70</v>
       </c>
@@ -15837,7 +15848,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>72</v>
       </c>
@@ -15848,7 +15859,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>76</v>
       </c>
@@ -15859,7 +15870,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>84</v>
       </c>
@@ -15870,7 +15881,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>90</v>
       </c>
@@ -15881,7 +15892,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>92</v>
       </c>
@@ -15892,7 +15903,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>96</v>
       </c>
@@ -15903,7 +15914,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>96</v>
       </c>
@@ -15914,7 +15925,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>100</v>
       </c>
@@ -15925,7 +15936,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>104</v>
       </c>
@@ -15936,7 +15947,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>108</v>
       </c>
@@ -15947,7 +15958,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>112</v>
       </c>
@@ -15958,7 +15969,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>116</v>
       </c>
@@ -15969,7 +15980,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>120</v>
       </c>
@@ -15980,7 +15991,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>124</v>
       </c>
@@ -15991,7 +16002,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>132</v>
       </c>
@@ -16002,7 +16013,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>136</v>
       </c>
@@ -16013,7 +16024,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>140</v>
       </c>
@@ -16024,7 +16035,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>140</v>
       </c>
@@ -16035,7 +16046,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>144</v>
       </c>
@@ -16046,7 +16057,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>148</v>
       </c>
@@ -16057,7 +16068,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>152</v>
       </c>
@@ -16068,7 +16079,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>156</v>
       </c>
@@ -16079,7 +16090,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>158</v>
       </c>
@@ -16090,7 +16101,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>162</v>
       </c>
@@ -16101,7 +16112,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>166</v>
       </c>
@@ -16112,7 +16123,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>170</v>
       </c>
@@ -16123,7 +16134,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>174</v>
       </c>
@@ -16134,7 +16145,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>178</v>
       </c>
@@ -16145,7 +16156,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>180</v>
       </c>
@@ -16156,7 +16167,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>184</v>
       </c>
@@ -16167,7 +16178,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>188</v>
       </c>
@@ -16178,7 +16189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>191</v>
       </c>
@@ -16189,7 +16200,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>192</v>
       </c>
@@ -16200,7 +16211,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>196</v>
       </c>
@@ -16211,7 +16222,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>203</v>
       </c>
@@ -16222,7 +16233,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>204</v>
       </c>
@@ -16233,7 +16244,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>208</v>
       </c>
@@ -16244,7 +16255,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>212</v>
       </c>
@@ -16255,7 +16266,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>214</v>
       </c>
@@ -16266,7 +16277,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>218</v>
       </c>
@@ -16277,7 +16288,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>222</v>
       </c>
@@ -16288,7 +16299,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>226</v>
       </c>
@@ -16299,7 +16310,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>231</v>
       </c>
@@ -16310,7 +16321,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>232</v>
       </c>
@@ -16321,7 +16332,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>233</v>
       </c>
@@ -16332,7 +16343,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>234</v>
       </c>
@@ -16343,7 +16354,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>238</v>
       </c>
@@ -16354,7 +16365,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>242</v>
       </c>
@@ -16365,7 +16376,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>246</v>
       </c>
@@ -16376,7 +16387,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>250</v>
       </c>
@@ -16387,7 +16398,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>254</v>
       </c>
@@ -16398,7 +16409,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>258</v>
       </c>
@@ -16409,7 +16420,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>262</v>
       </c>
@@ -16420,7 +16431,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>266</v>
       </c>
@@ -16431,7 +16442,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>268</v>
       </c>
@@ -16442,7 +16453,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>270</v>
       </c>
@@ -16453,7 +16464,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>274</v>
       </c>
@@ -16464,7 +16475,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="6">
         <v>275</v>
       </c>
@@ -16475,7 +16486,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>276</v>
       </c>
@@ -16486,7 +16497,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>288</v>
       </c>
@@ -16497,7 +16508,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>292</v>
       </c>
@@ -16508,7 +16519,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>296</v>
       </c>
@@ -16519,7 +16530,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>300</v>
       </c>
@@ -16530,7 +16541,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>304</v>
       </c>
@@ -16541,7 +16552,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>308</v>
       </c>
@@ -16552,7 +16563,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>312</v>
       </c>
@@ -16563,7 +16574,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>316</v>
       </c>
@@ -16574,7 +16585,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>320</v>
       </c>
@@ -16585,7 +16596,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>324</v>
       </c>
@@ -16596,7 +16607,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>328</v>
       </c>
@@ -16607,7 +16618,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>332</v>
       </c>
@@ -16618,7 +16629,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>336</v>
       </c>
@@ -16629,7 +16640,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>340</v>
       </c>
@@ -16640,7 +16651,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>344</v>
       </c>
@@ -16651,7 +16662,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>348</v>
       </c>
@@ -16662,7 +16673,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>352</v>
       </c>
@@ -16673,7 +16684,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>356</v>
       </c>
@@ -16684,7 +16695,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>360</v>
       </c>
@@ -16695,7 +16706,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>364</v>
       </c>
@@ -16706,7 +16717,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>368</v>
       </c>
@@ -16717,7 +16728,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>372</v>
       </c>
@@ -16728,7 +16739,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>376</v>
       </c>
@@ -16739,7 +16750,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>380</v>
       </c>
@@ -16750,7 +16761,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>384</v>
       </c>
@@ -16761,7 +16772,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>388</v>
       </c>
@@ -16772,7 +16783,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>392</v>
       </c>
@@ -16783,7 +16794,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>398</v>
       </c>
@@ -16794,7 +16805,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>400</v>
       </c>
@@ -16805,7 +16816,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>404</v>
       </c>
@@ -16816,7 +16827,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>408</v>
       </c>
@@ -16827,7 +16838,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>410</v>
       </c>
@@ -16838,7 +16849,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>414</v>
       </c>
@@ -16849,7 +16860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>417</v>
       </c>
@@ -16860,7 +16871,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>418</v>
       </c>
@@ -16871,7 +16882,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>422</v>
       </c>
@@ -16882,7 +16893,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>426</v>
       </c>
@@ -16893,7 +16904,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>428</v>
       </c>
@@ -16904,7 +16915,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>430</v>
       </c>
@@ -16915,7 +16926,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>434</v>
       </c>
@@ -16926,7 +16937,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>438</v>
       </c>
@@ -16937,7 +16948,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>440</v>
       </c>
@@ -16948,7 +16959,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>442</v>
       </c>
@@ -16959,7 +16970,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>446</v>
       </c>
@@ -16970,7 +16981,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>450</v>
       </c>
@@ -16981,7 +16992,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>454</v>
       </c>
@@ -16992,7 +17003,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>458</v>
       </c>
@@ -17003,7 +17014,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>462</v>
       </c>
@@ -17014,7 +17025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>466</v>
       </c>
@@ -17025,7 +17036,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>470</v>
       </c>
@@ -17036,7 +17047,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>474</v>
       </c>
@@ -17047,7 +17058,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>478</v>
       </c>
@@ -17058,7 +17069,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>480</v>
       </c>
@@ -17069,7 +17080,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>484</v>
       </c>
@@ -17080,7 +17091,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>492</v>
       </c>
@@ -17091,7 +17102,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>496</v>
       </c>
@@ -17102,7 +17113,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>498</v>
       </c>
@@ -17113,7 +17124,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>500</v>
       </c>
@@ -17124,7 +17135,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>504</v>
       </c>
@@ -17135,7 +17146,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>508</v>
       </c>
@@ -17146,7 +17157,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>512</v>
       </c>
@@ -17157,7 +17168,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>516</v>
       </c>
@@ -17168,7 +17179,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>520</v>
       </c>
@@ -17179,7 +17190,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>524</v>
       </c>
@@ -17190,7 +17201,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>528</v>
       </c>
@@ -17201,7 +17212,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>530</v>
       </c>
@@ -17212,7 +17223,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>533</v>
       </c>
@@ -17223,7 +17234,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>540</v>
       </c>
@@ -17234,7 +17245,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>548</v>
       </c>
@@ -17245,7 +17256,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>554</v>
       </c>
@@ -17256,7 +17267,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>558</v>
       </c>
@@ -17267,7 +17278,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>562</v>
       </c>
@@ -17278,7 +17289,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>566</v>
       </c>
@@ -17289,7 +17300,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>570</v>
       </c>
@@ -17300,7 +17311,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>574</v>
       </c>
@@ -17311,7 +17322,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>578</v>
       </c>
@@ -17322,7 +17333,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>580</v>
       </c>
@@ -17333,7 +17344,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>583</v>
       </c>
@@ -17344,7 +17355,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>584</v>
       </c>
@@ -17355,7 +17366,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>585</v>
       </c>
@@ -17366,7 +17377,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>586</v>
       </c>
@@ -17377,7 +17388,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>591</v>
       </c>
@@ -17388,7 +17399,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>598</v>
       </c>
@@ -17399,7 +17410,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>600</v>
       </c>
@@ -17410,7 +17421,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>604</v>
       </c>
@@ -17421,7 +17432,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>608</v>
       </c>
@@ -17432,7 +17443,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>612</v>
       </c>
@@ -17443,7 +17454,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>616</v>
       </c>
@@ -17454,7 +17465,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>620</v>
       </c>
@@ -17465,7 +17476,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>624</v>
       </c>
@@ -17476,7 +17487,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>626</v>
       </c>
@@ -17487,7 +17498,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>630</v>
       </c>
@@ -17498,7 +17509,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>634</v>
       </c>
@@ -17509,7 +17520,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>638</v>
       </c>
@@ -17520,7 +17531,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>642</v>
       </c>
@@ -17531,7 +17542,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>643</v>
       </c>
@@ -17542,7 +17553,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>646</v>
       </c>
@@ -17553,7 +17564,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>654</v>
       </c>
@@ -17564,7 +17575,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>659</v>
       </c>
@@ -17575,7 +17586,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>660</v>
       </c>
@@ -17586,7 +17597,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>662</v>
       </c>
@@ -17597,7 +17608,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>666</v>
       </c>
@@ -17608,7 +17619,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>670</v>
       </c>
@@ -17619,7 +17630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>674</v>
       </c>
@@ -17630,7 +17641,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>678</v>
       </c>
@@ -17641,7 +17652,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>682</v>
       </c>
@@ -17652,7 +17663,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>686</v>
       </c>
@@ -17663,7 +17674,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>690</v>
       </c>
@@ -17674,7 +17685,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>694</v>
       </c>
@@ -17685,7 +17696,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>702</v>
       </c>
@@ -17696,7 +17707,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>703</v>
       </c>
@@ -17707,7 +17718,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>704</v>
       </c>
@@ -17718,7 +17729,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>705</v>
       </c>
@@ -17729,7 +17740,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>706</v>
       </c>
@@ -17740,7 +17751,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>710</v>
       </c>
@@ -17751,7 +17762,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>716</v>
       </c>
@@ -17762,7 +17773,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>724</v>
       </c>
@@ -17773,7 +17784,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>732</v>
       </c>
@@ -17784,7 +17795,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>736</v>
       </c>
@@ -17795,7 +17806,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>740</v>
       </c>
@@ -17806,7 +17817,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>744</v>
       </c>
@@ -17817,7 +17828,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>748</v>
       </c>
@@ -17828,7 +17839,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>752</v>
       </c>
@@ -17839,7 +17850,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>756</v>
       </c>
@@ -17850,7 +17861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>760</v>
       </c>
@@ -17861,7 +17872,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>762</v>
       </c>
@@ -17872,7 +17883,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>764</v>
       </c>
@@ -17883,7 +17894,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>768</v>
       </c>
@@ -17894,7 +17905,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>772</v>
       </c>
@@ -17905,7 +17916,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>776</v>
       </c>
@@ -17916,7 +17927,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>780</v>
       </c>
@@ -17927,7 +17938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>784</v>
       </c>
@@ -17938,7 +17949,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>788</v>
       </c>
@@ -17949,7 +17960,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>792</v>
       </c>
@@ -17960,7 +17971,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>795</v>
       </c>
@@ -17971,7 +17982,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>796</v>
       </c>
@@ -17982,7 +17993,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>798</v>
       </c>
@@ -17993,7 +18004,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>800</v>
       </c>
@@ -18004,7 +18015,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>804</v>
       </c>
@@ -18015,7 +18026,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>807</v>
       </c>
@@ -18026,7 +18037,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>818</v>
       </c>
@@ -18037,7 +18048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>826</v>
       </c>
@@ -18048,7 +18059,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>830</v>
       </c>
@@ -18059,7 +18070,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>833</v>
       </c>
@@ -18070,7 +18081,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>834</v>
       </c>
@@ -18081,7 +18092,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>840</v>
       </c>
@@ -18092,7 +18103,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>850</v>
       </c>
@@ -18103,7 +18114,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>854</v>
       </c>
@@ -18114,7 +18125,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>858</v>
       </c>
@@ -18125,7 +18136,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>860</v>
       </c>
@@ -18136,7 +18147,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>862</v>
       </c>
@@ -18147,7 +18158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>876</v>
       </c>
@@ -18158,7 +18169,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>882</v>
       </c>
@@ -18169,7 +18180,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>882</v>
       </c>
@@ -18180,7 +18191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>887</v>
       </c>
@@ -18191,7 +18202,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>891</v>
       </c>
@@ -18202,7 +18213,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>891</v>
       </c>
@@ -18213,7 +18224,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>894</v>
       </c>
